--- a/coordintes_xyz_ugc.xlsx
+++ b/coordintes_xyz_ugc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DFF286-D888-494E-BE33-5459253262B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B747FB3-9CDB-458D-A309-BA887AF98E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{F6624E18-56D3-4141-BE3B-64E8013C2113}"/>
+    <workbookView xWindow="5316" yWindow="2088" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{10998F3A-6D55-4EA4-835E-93FF1D531911}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72D488-D60D-497A-9E17-9CBBEDF9833F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EDAFB6-12DB-4AF6-AA79-35AC3775B797}">
   <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-803.90469199999995</v>
+      </c>
+      <c r="B2">
+        <v>34.790488000000003</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-724.99712199999999</v>
+      </c>
+      <c r="B3">
+        <v>-1.092597</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-743.09685400000001</v>
+      </c>
+      <c r="B4">
+        <v>48.585594999999998</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-778.01883499999997</v>
+      </c>
+      <c r="B5">
+        <v>6.7223319999999998</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-757.014994</v>
+      </c>
+      <c r="B6">
+        <v>25.984151000000001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-673.39295100000004</v>
+      </c>
+      <c r="B7">
+        <v>50.552090999999997</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-664.92364299999997</v>
+      </c>
+      <c r="B8">
+        <v>35.208772000000003</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C372DC1-842E-4088-AFA5-DB2F6DD3CBD1}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,111 +516,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-803.90469199999995</v>
+        <v>-689.802413</v>
       </c>
       <c r="B2">
-        <v>34.790488000000003</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-724.99712199999999</v>
-      </c>
-      <c r="B3">
-        <v>-1.092597</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-743.09685400000001</v>
-      </c>
-      <c r="B4">
-        <v>48.585594999999998</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-778.01883499999997</v>
-      </c>
-      <c r="B5">
-        <v>6.7223319999999998</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-757.014994</v>
-      </c>
-      <c r="B6">
-        <v>25.984151000000001</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-673.39295100000004</v>
-      </c>
-      <c r="B7">
-        <v>50.552090999999997</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-664.92364299999997</v>
-      </c>
-      <c r="B8">
-        <v>35.208772000000003</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964B2DFF-ED64-4E5A-A2DF-47FBA0A6AC35}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-820.16161599999998</v>
-      </c>
-      <c r="B2">
-        <v>49.441107000000002</v>
+        <v>23.741236000000001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>-683.91501200000005</v>
       </c>
       <c r="B3">
-        <v>31.151304</v>
+        <v>28.756529</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-675.25651700000003</v>
+        <v>-677.17233699999997</v>
       </c>
       <c r="B4">
         <v>23.553906000000001</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-1266.7894229999999</v>
+        <v>-697.587895</v>
       </c>
       <c r="B5">
-        <v>45.775931999999997</v>
+        <v>50.744048999999997</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -560,12 +560,45 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>-820.16161599999998</v>
+      </c>
+      <c r="B6">
+        <v>49.441107000000002</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-811.05750499999999</v>
+      </c>
+      <c r="B7">
+        <v>51.355828000000002</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-1266.7894229999999</v>
+      </c>
+      <c r="B8">
+        <v>45.775931999999997</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>-1201.863458</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>141.94315399999999</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
